--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1943.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1943.xlsx
@@ -351,10 +351,10 @@
         <v>1.421139534351532</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.523249401172837</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1943.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1943.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.421139534351532</v>
+        <v>0.4365677535533905</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>0.550317645072937</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>0.799268364906311</v>
       </c>
       <c r="D1">
-        <v>1.523249401172837</v>
+        <v>3.762670040130615</v>
       </c>
       <c r="E1">
-        <v>1.021039640166933</v>
+        <v>5.652971267700195</v>
       </c>
     </row>
   </sheetData>
